--- a/docs/documents/Sports future at IST - Suggestions responses only.xlsx
+++ b/docs/documents/Sports future at IST - Suggestions responses only.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsaonaur\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsaonaur\Sync\projects\Future-of-sports-at-IST-Austria\docs\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Rai" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="366">
   <si>
     <t>Lights for the field!</t>
   </si>
@@ -1158,12 +1158,24 @@
   <si>
     <t>Climbing boards are fun and give you many boulders to climb on very little space: Moonboard, Tension Board, Kilterboard</t>
   </si>
+  <si>
+    <t>Your suggestions to improve already existing indoors activities:</t>
+  </si>
+  <si>
+    <t>Your suggestions to improve already existing outdoors facilities:</t>
+  </si>
+  <si>
+    <t>Your suggestions regarding new indoors activities:</t>
+  </si>
+  <si>
+    <t>Your suggestions regarding new outdoors activities:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1174,6 +1186,12 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1183,7 +1201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1191,13 +1209,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1413,10 +1452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1427,7 +1466,24 @@
     <col min="4" max="4" width="174.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1438,12 +1494,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1451,12 +1507,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1464,12 +1520,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1477,12 +1533,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1493,7 +1549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1501,12 +1557,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1520,7 +1576,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1528,7 +1584,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -1539,7 +1595,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -1686,10 +1742,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1700,273 +1756,290 @@
     <col min="4" max="4" width="170.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="1" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="1" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="1" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C29" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1977,10 +2050,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1989,312 +2062,329 @@
     <col min="4" max="4" width="213" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="1" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D16" s="1" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2305,10 +2395,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2319,300 +2409,317 @@
     <col min="4" max="4" width="110.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="1" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C30" s="1" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>289</v>
       </c>
     </row>
@@ -2623,10 +2730,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2636,296 +2743,314 @@
     <col min="3" max="4" width="255.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D14" s="1" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="1" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="1" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>330</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>337</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="1" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>348</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>352</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C32" s="1" t="s">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
         <v>361</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>